--- a/artfynd/A 61433-2025 artfynd.xlsx
+++ b/artfynd/A 61433-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130792129</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>130792131</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>130792123</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>130792114</v>
       </c>
       <c r="B5" t="n">
-        <v>97874</v>
+        <v>97878</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>130792121</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>130792119</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>130792118</v>
       </c>
       <c r="B8" t="n">
-        <v>80380</v>
+        <v>80384</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>130792115</v>
       </c>
       <c r="B9" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130792125</v>
+        <v>130792116</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>80348</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1748,26 +1748,30 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1775,10 +1779,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>540336</v>
+        <v>540533</v>
       </c>
       <c r="R10" t="n">
-        <v>6983550</v>
+        <v>6983434</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1815,7 +1819,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar.</t>
+          <t>Fertil lunglav med apothecier på en skadad men levande sälg.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1833,24 +1837,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad granskog med inslag av björk, sälg, tall asp och rönn.</t>
+        </is>
+      </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1868,10 +1877,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130792116</v>
+        <v>130792125</v>
       </c>
       <c r="B11" t="n">
-        <v>80344</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1879,30 +1888,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1910,10 +1915,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>540533</v>
+        <v>540336</v>
       </c>
       <c r="R11" t="n">
-        <v>6983434</v>
+        <v>6983550</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1950,7 +1955,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Fertil lunglav med apothecier på en skadad men levande sälg.</t>
+          <t>Långväxta bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1968,29 +1973,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad granskog med inslag av björk, sälg, tall asp och rönn.</t>
-        </is>
-      </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2011,7 +2011,7 @@
         <v>130792111</v>
       </c>
       <c r="B12" t="n">
-        <v>80373</v>
+        <v>80377</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>130792126</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>130792107</v>
       </c>
       <c r="B14" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>130792132</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>130792127</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>130792120</v>
       </c>
       <c r="B17" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>130792112</v>
       </c>
       <c r="B18" t="n">
-        <v>80373</v>
+        <v>80377</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>130792110</v>
       </c>
       <c r="B19" t="n">
-        <v>80373</v>
+        <v>80377</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>130792128</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>130792124</v>
       </c>
       <c r="B21" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>130792122</v>
       </c>
       <c r="B22" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>130792113</v>
       </c>
       <c r="B23" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>130792130</v>
       </c>
       <c r="B24" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>130792117</v>
       </c>
       <c r="B25" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>130792108</v>
       </c>
       <c r="B26" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>130792106</v>
       </c>
       <c r="B27" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
